--- a/extracted_excel/Murang’a_gendered_enterprise.xlsx
+++ b/extracted_excel/Murang’a_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Murang’a</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -160,7 +154,7 @@
     <t>Duration of the crop on the farm. They prefer plats that take a short time on the farm and can go to market fast. They prefer food crops for food security at home. They prefer crops that have a small capital investment. Land area available is small. Thus the prefer crops with high yield on a small area of land. Ease in getting local market for their produce. This also determines the choice of crop. Crops which do not require legal controls and regulators to market (coffee or tea) are preferred.</t>
   </si>
   <si>
-    <t>No response provided</t>
+    <t>Social: Traditions and culture in society are patriarchal thus they cannot make decisions on land use. Difficulty to access funding and capital. Lack of land ownership. Lack of adequate training in farming skills. The women do not support their own (women) in taking up leadership roles.</t>
   </si>
   <si>
     <t>Activity Gender</t>
@@ -181,7 +175,7 @@
     <t>The utilization of digital platforms depends on:ownership,skills, time, and airtime. Women are constrained by these factors. Through aggrotech firms, women are able to access these digital skills however, the skills uptake is still low. Women access the technology through support from their children who are tech savvy.</t>
   </si>
   <si>
-    <t>a.Land ● Due to cultural factors, land ownership favors men(inheritance,cultural beliefs). ● Women and youth have limited control on land use. ● Land as a factor of production.youth and women are more productive compared to the elderly who are still on the resource. b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services ● Men and elderly are in a vantage situation in higher amounts of loan access from formal institutions due to access to collateral as compared to women and youth. ● Women have a better access to finances to informal institutions(table banking). ● The Youth don't have access to formal institutions such as banks and saccos but have limited access to financial services in online platforms. c. Access to training and knowledge/extension ● Most men and youth are not available for training,women and elderly are the most available.(Men however are the highest implementers of the disseminated information). d. Access to information as market, weather The youth have the highest access to information but hardly utilize it. The elderly have the lowest access to information. Women have access to information but have limited capacity in implementation. e. Access to technology eg ICT, digital gadgets, internet, digital literacy ● Youth have the highest access in technology followed by men,women and elderly with least access.</t>
+    <t>a.Land ● Due to cultural factors, land ownership favors men(inheritance,cultural beliefs). ● Women and youth have limited control on land use. ● Land as a factor of production.youth and women are more productive compared to the elderly who are still on the resource. b. Finance-the overall financial landscape for access including the informal such as community Savings and loans associations) Saccos banks, insurance services ● Men and elderly are in a vantage situation in higher amounts of loan access from formal institutions due to access to collateral as compared to women and youth. ● Women have a better access to finances to informal institutions(table banking). ● The Youth don't have access to formal institutions such as banks and saccos but have limited access to financial services in online platforms. c. Access to training and knowledge/extension ● Most men and youth are not available for training,women and elderly are the most available. (Men however are the highest implementers of the disseminated information). d. Access to information as market, weather The youth have the highest access to information but hardly utilize it. The elderly have the lowest access to information. Women have access to information but have limited capacity in implementation. e. Access to technology eg ICT, digital gadgets, internet, digital literacy ● Youth have the highest access in technology followed by men,women and elderly with least access.</t>
   </si>
   <si>
     <t>● The market demand is high, being the staple food for the county.</t>
@@ -199,6 +193,9 @@
     <t>● Food and nutrition,source of income thus purchasing power,employment,infrastructure development.</t>
   </si>
   <si>
+    <t>● Market demand.</t>
+  </si>
+  <si>
     <t>● They can be replicated in other counties with similar agro ecological zones.</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>Cultural barriers Limited Access to Land: Despite constitutional guarantees, women in Murang'a often face cultural and legal barriers to land ownership, restricting their ability to invest in climate-resilient practices. Financial Constraints: Women-led enterprises struggle to secure funding due to stringent collateral requirements and limited access to formal financial services. Underrepresentation in Decision-Making: Women are often excluded from policy and decision-making processes, leading to strategies that do not fully address their specific needs. Lack of Gender-Disaggregated Data: The absence of comprehensive data hampers the development of targeted interventions to support women in climate-resilient enterprises.</t>
+  </si>
+  <si>
+    <t>Financial Support Access to affordable credit: Establish women-friendly loan products with low interest rates and flexible repayment terms through SACCOs, microfinance institutions, and the Women Enterprise Fund (WEF). Grant programs: Provide start-up and scale-up grants targeting women and youth-led enterprises, especially in rural areas. Investment in cooperatives: Strengthen women's cooperatives through seed funding and access to revolving funds to support group-based enterprises. Technical Support Capacity building and skills training: Offer regular training on entrepreneurship, business planning, digital marketing, and financial literacy tailored to women and marginalized groups. Mentorship and incubation: Create mentorship networks linking women entrepreneurs with experienced business leaders, and set up incubation hubs in sub-counties for early-stage enterprises. Market access support: Facilitate access to markets through trade fairs, e-commerce platforms, and linkages with county and national procurement systems. Policy and Institutional Support Gender-responsive policies: Strengthen the implementation of existing gender and youth empowerment policies, and ensure affirmative action in county procurement processes. Supportive regulations: Simplify business registration procedures at the ward level and reduce licensing fees for small-scale women-led enterprises. Childcare and social protection: Invest in community childcare centers and health services to relieve the unpaid care burden that limits women’s participation in business. Infrastructure and Technology Improved access to ICT: Provide digital tools, training, and internet access to enable women entrepreneurs to engage in online business and financial services. Transport and storage facilities: Enhance rural infrastructure such as feeder roads and market stalls, and invest in storage facilities for agro-based women businesses. Networking and Representation Enterprise associations: Support the formation and strengthening of women’s enterprise associations to enhance collective bargaining and policy advocacy. Inclusive decision-making: Ensure representation of women and marginalized groups in county enterprise and development boards.</t>
   </si>
 </sst>
 </file>
@@ -578,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,414 +594,324 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
